--- a/table.xlsx
+++ b/table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marinaromanchukevich/Desktop/kursovaya/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{703B533B-492E-254D-B04B-59564CFBD83F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF8CB47-9030-5D4D-92A6-14C570EF76C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6820" yWindow="2240" windowWidth="33600" windowHeight="19340" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19340" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Склад_остатки" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="55">
   <si>
     <t>Учет склада и обязательств</t>
   </si>
@@ -149,16 +149,13 @@
     <t>Купил Коцюба</t>
   </si>
   <si>
-    <t>17.04.2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Разъемы для датчиков гнездо ST033 из чип и дип</t>
+    <t>Разъемы для датчиков гнездо ST033 из чип и дип</t>
   </si>
   <si>
     <t>Отгрузка tg-bot</t>
   </si>
   <si>
-    <t xml:space="preserve"> Разъемы для датчиков  - штекер металл тиксер</t>
+    <t>Разъемы для датчиков  - штекер металл тиксер</t>
   </si>
   <si>
     <t>Поступление tg-bot</t>
@@ -192,12 +189,6 @@
   </si>
   <si>
     <t>Разъемы для датчиков  - штекер металл</t>
-  </si>
-  <si>
-    <t>Разъемы для датчиков  - штекер металл тиксер</t>
-  </si>
-  <si>
-    <t>Разъемы для датчиков гнездо ST033 из чип и дип</t>
   </si>
   <si>
     <t>Собранный непрошитый контроллер  без корпуса  ESP32</t>
@@ -292,7 +283,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -309,6 +300,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -574,7 +566,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -942,8 +934,8 @@
   <dimension ref="A1:E59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="158" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3360" topLeftCell="A39" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="D57" sqref="D57"/>
+      <pane ySplit="3360" topLeftCell="A37" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1873,11 +1865,11 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A55" t="s">
+      <c r="A55" s="10">
+        <v>45399</v>
+      </c>
+      <c r="B55" t="s">
         <v>37</v>
-      </c>
-      <c r="B55" t="s">
-        <v>38</v>
       </c>
       <c r="C55">
         <v>5</v>
@@ -1886,15 +1878,15 @@
         <v>0</v>
       </c>
       <c r="E55" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A56" s="10">
+        <v>45399</v>
+      </c>
+      <c r="B56" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A56" t="s">
-        <v>37</v>
-      </c>
-      <c r="B56" t="s">
-        <v>40</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -1903,15 +1895,15 @@
         <v>4</v>
       </c>
       <c r="E56" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A57" t="s">
+      <c r="A57" s="10">
+        <v>45399</v>
+      </c>
+      <c r="B57" t="s">
         <v>37</v>
-      </c>
-      <c r="B57" t="s">
-        <v>38</v>
       </c>
       <c r="C57">
         <v>4</v>
@@ -1920,15 +1912,15 @@
         <v>0</v>
       </c>
       <c r="E57" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A58" t="s">
+      <c r="A58" s="10">
+        <v>45399</v>
+      </c>
+      <c r="B58" t="s">
         <v>37</v>
-      </c>
-      <c r="B58" t="s">
-        <v>38</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -1938,11 +1930,11 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A59" t="s">
-        <v>37</v>
+      <c r="A59" s="10">
+        <v>45399</v>
       </c>
       <c r="B59" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C59">
         <v>8</v>
@@ -1951,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="E59" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1969,7 +1961,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView zoomScale="137" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1985,7 +1977,7 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1993,7 +1985,7 @@
         <v>1111</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2001,7 +1993,7 @@
         <v>1112</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2009,7 +2001,7 @@
         <v>1113</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4">
         <v>142</v>
@@ -2020,7 +2012,7 @@
         <v>1114</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5">
         <v>142</v>
@@ -2031,7 +2023,7 @@
         <v>1115</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6">
         <v>100</v>
@@ -2042,7 +2034,7 @@
         <v>1116</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7">
         <v>100</v>
@@ -2053,7 +2045,7 @@
         <v>1117</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8">
         <v>142</v>
@@ -2086,7 +2078,7 @@
         <v>1120</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11">
         <v>125</v>
@@ -2164,7 +2156,7 @@
         <v>1127</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C18">
         <v>23</v>
@@ -2175,7 +2167,7 @@
         <v>1128</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C19">
         <v>53</v>
@@ -2186,7 +2178,7 @@
         <v>1129</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C20">
         <v>15</v>
@@ -2208,7 +2200,7 @@
         <v>1131</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C22">
         <v>700</v>
@@ -2263,7 +2255,7 @@
         <v>1136</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C27">
         <v>226</v>
@@ -2274,7 +2266,7 @@
         <v>1137</v>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C28">
         <v>800</v>
@@ -2297,7 +2289,7 @@
         <v>1139</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C30">
         <v>649</v>
